--- a/99_研修課題/11月分/コーディング手順書.xlsx
+++ b/99_研修課題/11月分/コーディング手順書.xlsx
@@ -15,6 +15,7 @@
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
     <sheet name="フレームワーク" sheetId="2" r:id="rId2"/>
     <sheet name="Thymeleafを使用するとき必ずすること" sheetId="3" r:id="rId3"/>
+    <sheet name="Java" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,16 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>①表の作成方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤リンクの指定</t>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -62,10 +56,6 @@
     <rPh sb="14" eb="16">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥画面の遷移方法</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -235,12 +225,86 @@
     <t>・profileController.java（コントローラークラス）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>⑤非表示で値を保持する</t>
+    <rPh sb="1" eb="4">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="×××" id="×××" th:value="*{×××}"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・type属性："hidden"を指定する事で「画面上には表示されないが、HTML上に値を保持することができる」</t>
+    <rPh sb="24" eb="27">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥リンクの指定</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦画面の遷移方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Random random = new Random();</t>
+  </si>
+  <si>
+    <t>・乱数を取得する</t>
+    <rPh sb="1" eb="3">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int randomValue = random.nextInt(X);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～X-1までの値がrandomValueに設定される</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +320,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,11 +358,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,15 +3055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2993,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1684020" y="4145280"/>
-          <a:ext cx="822960" cy="121920"/>
+          <a:off x="1657350" y="4221480"/>
+          <a:ext cx="838200" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3002,7 +3087,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3035,16 +3120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:rowOff>100966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3059,8 +3144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="9806940"/>
-          <a:ext cx="1226820" cy="167640"/>
+          <a:off x="1303019" y="10102216"/>
+          <a:ext cx="2230755" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,7 +3153,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3102,15 +3187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360997</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:rowOff>100966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3128,15 +3213,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="4267200"/>
-          <a:ext cx="803910" cy="5539740"/>
+          <a:off x="2076450" y="4343400"/>
+          <a:ext cx="341947" cy="5758816"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -3161,15 +3246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>569595</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>81915</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3184,8 +3269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="579120" y="9136380"/>
-          <a:ext cx="853440" cy="137160"/>
+          <a:off x="569595" y="9422130"/>
+          <a:ext cx="883920" cy="146685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3193,7 +3278,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3226,16 +3311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3250,8 +3335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192780" y="8290560"/>
-          <a:ext cx="1668780" cy="472440"/>
+          <a:off x="2586990" y="7547610"/>
+          <a:ext cx="1714500" cy="491490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,9 +3346,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3303,15 +3386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>208598</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3329,15 +3412,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1432560" y="8526780"/>
-          <a:ext cx="1760220" cy="678180"/>
+          <a:off x="1453515" y="7793355"/>
+          <a:ext cx="1133475" cy="1702118"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -3396,9 +3479,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3476,9 +3557,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3519,14 +3598,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3541,8 +3620,258 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="548640" y="10172700"/>
-          <a:ext cx="853440" cy="137160"/>
+          <a:off x="548640" y="10448925"/>
+          <a:ext cx="883920" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584835</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1CFA4B9-C704-4160-8B32-8E5656A9BBD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584835" y="11490960"/>
+          <a:ext cx="883920" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E9983D-1D25-49EE-AF75-9490CA6CBFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1432560" y="10522268"/>
+          <a:ext cx="2948940" cy="208597"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940938DE-6792-470C-8B4B-B87C2ACFE18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1468755" y="11564303"/>
+          <a:ext cx="2226945" cy="282892"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B182EDC2-0DFC-4C23-B2FB-AAA599267ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="544830" y="10290811"/>
+          <a:ext cx="2160270" cy="148590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3583,23 +3912,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1CFA4B9-C704-4160-8B32-8E5656A9BBD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF5C645-F81C-429C-AA2A-B2945E25FF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,8 +3936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556260" y="11186160"/>
-          <a:ext cx="853440" cy="137160"/>
+          <a:off x="8107680" y="3994785"/>
+          <a:ext cx="617220" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3649,266 +3978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E9983D-1D25-49EE-AF75-9490CA6CBFFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="1"/>
-          <a:endCxn id="22" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1402080" y="10241280"/>
-          <a:ext cx="2887980" cy="60960"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940938DE-6792-470C-8B4B-B87C2ACFE18A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="1"/>
-          <a:endCxn id="23" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1409700" y="11254740"/>
-          <a:ext cx="2209800" cy="125730"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B182EDC2-0DFC-4C23-B2FB-AAA599267ADE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="10005060"/>
-          <a:ext cx="838200" cy="129540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF5C645-F81C-429C-AA2A-B2945E25FF7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7940040" y="3909060"/>
-          <a:ext cx="601980" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3926,8 +4005,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2590800" y="4069080"/>
-          <a:ext cx="5650230" cy="6000750"/>
+          <a:off x="2705100" y="4154805"/>
+          <a:ext cx="5711190" cy="6210301"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3958,16 +4037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3982,8 +4061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="10843260"/>
-          <a:ext cx="990600" cy="160020"/>
+          <a:off x="1398269" y="11119486"/>
+          <a:ext cx="1973581" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,7 +4070,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4025,15 +4104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>539115</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4048,8 +4127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="4137660"/>
-          <a:ext cx="723900" cy="129540"/>
+          <a:off x="7343775" y="4232910"/>
+          <a:ext cx="739140" cy="129540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4057,7 +4136,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4090,16 +4169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165736</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4117,8 +4196,428 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2857500" y="4267200"/>
-          <a:ext cx="4705350" cy="6576060"/>
+          <a:off x="2385060" y="4362450"/>
+          <a:ext cx="5328285" cy="6757036"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28247AFD-1FAF-4558-B360-26712EB4E913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534149" y="10132695"/>
+          <a:ext cx="3800475" cy="491490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;input type="text" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に入力された値が、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に設定される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156211</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>168594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E9983D-1D25-49EE-AF75-9490CA6CBFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3585211" y="10169844"/>
+          <a:ext cx="2948938" cy="208596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302894</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308A638D-A8E8-41AA-8E9E-FA08C407777E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="302894" y="9896475"/>
+          <a:ext cx="3926206" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472438</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158113</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28247AFD-1FAF-4558-B360-26712EB4E913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10759438" y="5314950"/>
+          <a:ext cx="3800475" cy="491490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>第二引数の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の値が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上に展開される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472438</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E9983D-1D25-49EE-AF75-9490CA6CBFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8639176" y="4276725"/>
+          <a:ext cx="2120262" cy="1283970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4126,6 +4625,420 @@
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234313</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28247AFD-1FAF-4558-B360-26712EB4E913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092313" y="9248775"/>
+          <a:ext cx="4785362" cy="491490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>/age </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>という</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>リクエスト（要求）が発生した場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>age</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>メソッドが呼ばれる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234313</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E9983D-1D25-49EE-AF75-9490CA6CBFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4229100" y="9494520"/>
+          <a:ext cx="2863213" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308A638D-A8E8-41AA-8E9E-FA08C407777E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="10934700"/>
+          <a:ext cx="3926206" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45719</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308A638D-A8E8-41AA-8E9E-FA08C407777E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45719" y="8553450"/>
+          <a:ext cx="830581" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C4E7F30-9BE8-4DF6-BF32-A95B806DFFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="7280909"/>
+          <a:ext cx="1714500" cy="767715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>該当クラスが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>であることを定義するアノテーション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE7551D-D809-45BA-8283-7AA89D756CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="461010" y="8048624"/>
+          <a:ext cx="472440" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -4585,7 +5498,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
@@ -4598,87 +5511,107 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4700,53 +5633,53 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +5700,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4775,4 +5708,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>